--- a/data/trans_camb/P4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-7,13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 10,0</t>
+          <t>-11,33; 19,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 10,04</t>
+          <t>-13,09; 17,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 13,49</t>
+          <t>-10,37; 22,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 7,4</t>
+          <t>-21,4; 3,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 7,73</t>
+          <t>-8,93; 10,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 7,26</t>
+          <t>-8,59; 10,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,6</t>
+          <t>-9,68; 9,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,78</t>
+          <t>-12,51; 7,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,3</t>
+          <t>-6,79; 9,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 9,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 11,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; 2,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-9,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-18,09%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 41,22</t>
+          <t>-37,7; 94,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 41,84</t>
+          <t>-41,07; 88,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 55,27</t>
+          <t>-34,21; 108,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 27,88</t>
+          <t>-59,49; 19,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 28,72</t>
+          <t>-26,14; 42,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 26,14</t>
+          <t>-24,17; 42,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 23,66</t>
+          <t>-27,99; 36,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 21,38</t>
+          <t>-37,78; 30,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 27,08</t>
+          <t>-21,31; 39,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-22,47; 41,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 46,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,91; 10,28</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 7,47</t>
+          <t>-11,58; 11,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 8,47</t>
+          <t>-10,52; 11,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 6,04</t>
+          <t>-12,7; 8,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 9,29</t>
+          <t>-8,16; 13,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 11,21</t>
+          <t>-8,52; 8,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 10,01</t>
+          <t>-6,23; 10,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,91</t>
+          <t>-6,54; 11,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,33</t>
+          <t>-1,46; 17,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 5,89</t>
+          <t>-7,99; 7,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 8,38</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 7,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 13,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,28%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 63,79</t>
+          <t>-48,82; 85,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 71,18</t>
+          <t>-44,71; 86,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 53,07</t>
+          <t>-52,34; 62,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 60,76</t>
+          <t>-36,72; 94,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 72,77</t>
+          <t>-44,34; 75,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 64,57</t>
+          <t>-34,1; 94,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 38,43</t>
+          <t>-33,42; 95,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 48,17</t>
+          <t>-10,63; 152,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 38,88</t>
+          <t>-37,69; 48,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-30,38; 58,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; 52,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,03; 97,34</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,25</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 30,03</t>
+          <t>-49,47; 44,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 24,57</t>
+          <t>-42,19; 45,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 30,03</t>
+          <t>-40,86; 50,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 12,48</t>
+          <t>-45,75; 30,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 12,92</t>
+          <t>-10,58; 15,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 18,39</t>
+          <t>-10,88; 15,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 18,31</t>
+          <t>-6,45; 26,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 13,84</t>
+          <t>-7,13; 25,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 19,1</t>
+          <t>-28,96; 28,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-24,25; 29,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,94; 33,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-31,58; 20,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>145,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>120,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>-2,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54,17%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1412,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1066,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 436,03</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 443,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 599,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-87,75; 267,24</t>
+          <t>-75,76; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 235,23</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,11; 304,08</t>
+          <t>-100,0; 649,86</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 585,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-79,33; 660,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-83,76; 613,48</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,56</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,68</t>
+          <t>-9,26; 11,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,79</t>
+          <t>-8,78; 10,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 8,29</t>
+          <t>-8,58; 12,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 5,55</t>
+          <t>-13,07; 4,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,39</t>
+          <t>-5,68; 7,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,81</t>
+          <t>-4,7; 7,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,61</t>
+          <t>-4,24; 8,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,73</t>
+          <t>-4,6; 9,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,47</t>
+          <t>-4,89; 7,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 7,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 8,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 5,3</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 34,48</t>
+          <t>-34,35; 58,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 35,53</t>
+          <t>-32,81; 59,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 43,81</t>
+          <t>-31,18; 67,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 24,76</t>
+          <t>-43,09; 25,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 27,77</t>
+          <t>-22,62; 38,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 25,79</t>
+          <t>-19,33; 41,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 21,45</t>
+          <t>-18,32; 45,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 21,67</t>
+          <t>-18,13; 49,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 25,06</t>
+          <t>-19,43; 36,61</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 35,96</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 44,65</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 26,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
